--- a/biology/Botanique/Pinus_serotina/Pinus_serotina.xlsx
+++ b/biology/Botanique/Pinus_serotina/Pinus_serotina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus serotina est une espèce d'arbre appartenant au genre Pinus et à la famille des Pinaceae. On le rencontre sur les plaines de la côte Atlantique des États-Unis du sud du New Jersey jusqu'au centre de la Floride. Son nom provient de son comportement dénommé Sérotinie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre a un sommet dont la forme est irrégulière. Il peut atteindre une hauteur moyenne variant de 15 à 20 mètres même si quelques spécimens atteignent parfois les 30 mètres. Les aiguilles sont groupées par trois ou quatre et ont une longueur de 15 à 20 centimètres. Les cônes font entre 5 et 9 cm de long, ont un comportement de Sérotinie et ne s'ouvrent qu'en cas d'incendie. Ils sont présents à proximité d'étangs, de marais et de pocosins.
 </t>
